--- a/Taks/3.3/3.3/3.3/func.xlsx
+++ b/Taks/3.3/3.3/3.3/func.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -25,6 +25,36 @@
   </si>
   <si>
     <t>1 + 2* x^2</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>recurent</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>2*n+3</t>
+  </si>
+  <si>
+    <t>n+1</t>
+  </si>
+  <si>
+    <t>2*n+1</t>
+  </si>
+  <si>
+    <t>(n+1)*(2*n+1)</t>
+  </si>
+  <si>
+    <t>x^2 * (2*n+3)</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -363,18 +393,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +424,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -405,8 +475,47 @@
         <f>C2*D2</f>
         <v>1.0302511704258512</v>
       </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>1.0302511704258512</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>2*H2+3</f>
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f>H2+1</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f>2*H2+1</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>B2*I2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2">
+        <f>J2*K2</f>
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <f>L2/M2</f>
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="P2">
+        <f>F2</f>
+        <v>1.0302511704258512</v>
+      </c>
+      <c r="Q2">
+        <f>P2</f>
+        <v>1.0302511704258512</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -426,8 +535,47 @@
         <f t="shared" ref="E3:E11" si="3">C3*D3</f>
         <v>1.1240756361277793</v>
       </c>
+      <c r="F3">
+        <f>F2+E3</f>
+        <v>2.1543268065536303</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="4">2*H3+3</f>
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="5">H3+1</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="6">2*H3+1</f>
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="7">B3*I3</f>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="8">J3*K3</f>
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="9">L3/M3</f>
+        <v>1.285714285714286E-2</v>
+      </c>
+      <c r="P3">
+        <f>P2*O2</f>
+        <v>4.8078387953206392E-3</v>
+      </c>
+      <c r="Q3">
+        <f>Q2+P3</f>
+        <v>1.0350590092211718</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -447,8 +595,47 @@
         <f t="shared" si="3"/>
         <v>1.2911256547721481</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="10">F3+E4</f>
+        <v>3.4454524613257784</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="7"/>
+        <v>0.99</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="9"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="11">P3*O3</f>
+        <v>6.1815070225551086E-5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q11" si="12">Q3+P4</f>
+        <v>1.0351208242913974</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -468,8 +655,47 @@
         <f t="shared" si="3"/>
         <v>1.5490343497091896</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="10"/>
+        <v>4.9944868110349683</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>2.0800000000000005</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="9"/>
+        <v>3.1515151515151524E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="11"/>
+        <v>1.3599315449621237E-6</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="12"/>
+        <v>1.0351221842229423</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -489,8 +715,47 @@
         <f t="shared" si="3"/>
         <v>1.9260381250316121</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="10"/>
+        <v>6.9205249360665801</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="9"/>
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="11"/>
+        <v>4.2858448689715427E-8</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="12"/>
+        <v>1.0351222270813911</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -510,8 +775,47 @@
         <f t="shared" si="3"/>
         <v>2.4653265930437849</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="10"/>
+        <v>9.385851529110365</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>6.12</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="9"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="11"/>
+        <v>1.7661448635871742E-9</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="12"/>
+        <v>1.0351222288475359</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -531,8 +835,47 @@
         <f t="shared" si="3"/>
         <v>3.23198611551165</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="10"/>
+        <v>12.617837644622014</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>9.3099999999999987</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>6.084967320261437E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="11"/>
+        <v>9.0073388042945896E-11</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="12"/>
+        <v>1.0351222289376092</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -552,8 +895,47 @@
         <f t="shared" si="3"/>
         <v>4.3239764048152907</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="10"/>
+        <v>16.941814049437305</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>13.440000000000003</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>7.0736842105263167E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="11"/>
+        <v>5.4809362266655307E-12</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="12"/>
+        <v>1.0351222289430901</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -573,8 +955,47 @@
         <f t="shared" si="3"/>
         <v>5.8895189250923563</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="10"/>
+        <v>22.831332974529662</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>18.630000000000003</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>8.0649350649350665E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="11"/>
+        <v>3.8770412045465653E-13</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="12"/>
+        <v>1.0351222289434778</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -593,6 +1014,45 @@
       <c r="E11">
         <f t="shared" si="3"/>
         <v>8.1548454853771357</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="10"/>
+        <v>30.986178459906796</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>276</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>9.0579710144927536E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="11"/>
+        <v>3.1268085558745679E-14</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="12"/>
+        <v>1.0351222289435091</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Taks/3.3/3.3/3.3/func.xlsx
+++ b/Taks/3.3/3.3/3.3/func.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="P3" sqref="P3:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +454,9 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -480,39 +483,39 @@
         <v>1.0302511704258512</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f>2*H2+3</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <f>H2+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f>2*H2+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <f>B2*I2</f>
-        <v>7.0000000000000007E-2</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="M2">
         <f>J2*K2</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <f>L2/M2</f>
-        <v>4.6666666666666671E-3</v>
+        <f>P1*$B$2/(H2+1)</f>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="P2">
-        <f>F2</f>
-        <v>1.0302511704258512</v>
+        <f>P1+O2</f>
+        <v>1.0049999999999999</v>
       </c>
       <c r="Q2">
         <f>P2</f>
-        <v>1.0302511704258512</v>
+        <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -540,39 +543,39 @@
         <v>2.1543268065536303</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="4">2*H3+3</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" si="5">H3+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K11" si="6">2*H3+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L11" si="7">B3*I3</f>
-        <v>0.3600000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M11" si="8">J3*K3</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O11" si="9">L3/M3</f>
-        <v>1.285714285714286E-2</v>
+        <f>O2*$B$2/(H3+1)</f>
+        <v>1.6666666666666674E-5</v>
       </c>
       <c r="P3">
-        <f>P2*O2</f>
-        <v>4.8078387953206392E-3</v>
+        <f>P2+O3</f>
+        <v>1.0050166666666667</v>
       </c>
       <c r="Q3">
-        <f>Q2+P3</f>
-        <v>1.0350590092211718</v>
+        <f t="shared" ref="Q3:Q11" si="9">P3</f>
+        <v>1.0050166666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -600,39 +603,39 @@
         <v>3.4454524613257784</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>0.99</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O4">
+        <f t="shared" ref="O4:O11" si="11">O3*$B$2/(H4+1)</f>
+        <v>4.1666666666666696E-8</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="12">P3+O4</f>
+        <v>1.0050167083333332</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="9"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P11" si="11">P3*O3</f>
-        <v>6.1815070225551086E-5</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q11" si="12">Q3+P4</f>
-        <v>1.0351208242913974</v>
+        <v>1.0050167083333332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -660,39 +663,39 @@
         <v>4.9944868110349683</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>2.0800000000000005</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O5">
+        <f t="shared" si="11"/>
+        <v>8.3333333333333407E-11</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="12"/>
+        <v>1.0050167084166666</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="9"/>
-        <v>3.1515151515151524E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="11"/>
-        <v>1.3599315449621237E-6</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="12"/>
-        <v>1.0351221842229423</v>
+        <v>1.0050167084166666</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -720,39 +723,39 @@
         <v>6.9205249360665801</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O6">
+        <f t="shared" si="11"/>
+        <v>1.3888888888888902E-13</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="12"/>
+        <v>1.0050167084168056</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="9"/>
-        <v>4.1208791208791208E-2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="11"/>
-        <v>4.2858448689715427E-8</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="12"/>
-        <v>1.0351222270813911</v>
+        <v>1.0050167084168056</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -780,39 +783,39 @@
         <v>9.385851529110365</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>6.12</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="O7">
+        <f t="shared" si="11"/>
+        <v>1.9841269841269864E-16</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="12"/>
+        <v>1.0050167084168058</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="9"/>
-        <v>5.1000000000000004E-2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="11"/>
-        <v>1.7661448635871742E-9</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="12"/>
-        <v>1.0351222288475359</v>
+        <v>1.0050167084168058</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -840,39 +843,39 @@
         <v>12.617837644622014</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>9.3099999999999987</v>
+        <v>8.3299999999999983</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="O8">
+        <f t="shared" si="11"/>
+        <v>2.4801587301587337E-19</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="12"/>
+        <v>1.0050167084168058</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="9"/>
-        <v>6.084967320261437E-2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="11"/>
-        <v>9.0073388042945896E-11</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="12"/>
-        <v>1.0351222289376092</v>
+        <v>1.0050167084168058</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -900,39 +903,39 @@
         <v>16.941814049437305</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>13.440000000000003</v>
+        <v>12.160000000000002</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="O9">
+        <f t="shared" si="11"/>
+        <v>2.7557319223985934E-22</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="12"/>
+        <v>1.0050167084168058</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="9"/>
-        <v>7.0736842105263167E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="11"/>
-        <v>5.4809362266655307E-12</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="12"/>
-        <v>1.0351222289430901</v>
+        <v>1.0050167084168058</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -960,39 +963,39 @@
         <v>22.831332974529662</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>18.630000000000003</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="O10">
+        <f t="shared" si="11"/>
+        <v>2.7557319223985942E-25</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="12"/>
+        <v>1.0050167084168058</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="9"/>
-        <v>8.0649350649350665E-2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="11"/>
-        <v>3.8770412045465653E-13</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="12"/>
-        <v>1.0351222289434778</v>
+        <v>1.0050167084168058</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1020,39 +1023,39 @@
         <v>30.986178459906796</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M11">
         <f t="shared" si="8"/>
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="O11">
+        <f t="shared" si="11"/>
+        <v>2.5052108385441769E-28</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="12"/>
+        <v>1.0050167084168058</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="9"/>
-        <v>9.0579710144927536E-2</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="11"/>
-        <v>3.1268085558745679E-14</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="12"/>
-        <v>1.0351222289435091</v>
+        <v>1.0050167084168058</v>
       </c>
     </row>
   </sheetData>

--- a/Taks/3.3/3.3/3.3/func.xlsx
+++ b/Taks/3.3/3.3/3.3/func.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +417,7 @@
     <col min="15" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,11 +457,11 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="P1">
-        <v>1</v>
+      <c r="P1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -498,27 +501,23 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <f>B2*I2</f>
-        <v>5.000000000000001E-2</v>
+        <f>I2</f>
+        <v>5</v>
       </c>
       <c r="M2">
         <f>J2*K2</f>
         <v>6</v>
       </c>
       <c r="O2">
-        <f>P1*$B$2/(H2+1)</f>
-        <v>5.000000000000001E-3</v>
+        <f>L2/M2</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P2">
-        <f>P1+O2</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="Q2">
-        <f>P2</f>
-        <v>1.0049999999999999</v>
+        <f>O2</f>
+        <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -558,27 +557,23 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="7">B3*I3</f>
-        <v>0.28000000000000003</v>
+        <f t="shared" ref="L3:L11" si="7">I3</f>
+        <v>7</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M11" si="8">J3*K3</f>
         <v>15</v>
       </c>
       <c r="O3">
-        <f>O2*$B$2/(H3+1)</f>
-        <v>1.6666666666666674E-5</v>
+        <f t="shared" ref="O3:O11" si="9">L3/M3</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="P3">
-        <f>P2+O3</f>
-        <v>1.0050166666666667</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="9">P3</f>
-        <v>1.0050166666666667</v>
+        <f>O3+P2</f>
+        <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -619,26 +614,22 @@
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>0.80999999999999994</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O11" si="11">O3*$B$2/(H4+1)</f>
-        <v>4.1666666666666696E-8</v>
+        <f t="shared" si="9"/>
+        <v>0.32142857142857145</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P11" si="12">P3+O4</f>
-        <v>1.0050167083333332</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="9"/>
-        <v>1.0050167083333332</v>
+        <f t="shared" ref="P4:P11" si="11">O4+P3</f>
+        <v>1.6214285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -679,26 +670,22 @@
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>1.7600000000000002</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="O5">
+        <f t="shared" si="9"/>
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="11"/>
-        <v>8.3333333333333407E-11</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="12"/>
-        <v>1.0050167084166666</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="9"/>
-        <v>1.0050167084166666</v>
+        <v>1.8658730158730159</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -739,26 +726,22 @@
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="O6">
+        <f t="shared" si="9"/>
+        <v>0.19696969696969696</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="11"/>
-        <v>1.3888888888888902E-13</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="12"/>
-        <v>1.0050167084168056</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="9"/>
-        <v>1.0050167084168056</v>
+        <v>2.0628427128427127</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -799,26 +782,22 @@
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>5.3999999999999995</v>
+        <v>15</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="O7">
+        <f t="shared" si="9"/>
+        <v>0.16483516483516483</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="11"/>
-        <v>1.9841269841269864E-16</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="12"/>
-        <v>1.0050167084168058</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="9"/>
-        <v>1.0050167084168058</v>
+        <v>2.2276778776778774</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -859,26 +838,22 @@
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>8.3299999999999983</v>
+        <v>17</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="O8">
+        <f t="shared" si="9"/>
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="11"/>
-        <v>2.4801587301587337E-19</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="12"/>
-        <v>1.0050167084168058</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="9"/>
-        <v>1.0050167084168058</v>
+        <v>2.369344544344544</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -919,26 +894,22 @@
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>12.160000000000002</v>
+        <v>19</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="O9">
+        <f t="shared" si="9"/>
+        <v>0.12418300653594772</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="11"/>
-        <v>2.7557319223985934E-22</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="12"/>
-        <v>1.0050167084168058</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="9"/>
-        <v>1.0050167084168058</v>
+        <v>2.4935275508804917</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -979,26 +950,22 @@
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>17.010000000000002</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="O10">
+        <f t="shared" si="9"/>
+        <v>0.11052631578947368</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="11"/>
-        <v>2.7557319223985942E-25</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="12"/>
-        <v>1.0050167084168058</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="9"/>
-        <v>1.0050167084168058</v>
+        <v>2.6040538666699655</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1046,16 +1013,12 @@
         <v>231</v>
       </c>
       <c r="O11">
+        <f t="shared" si="9"/>
+        <v>9.9567099567099568E-2</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="11"/>
-        <v>2.5052108385441769E-28</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="12"/>
-        <v>1.0050167084168058</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>1.0050167084168058</v>
+        <v>2.7036209662370649</v>
       </c>
     </row>
   </sheetData>

--- a/Taks/3.3/3.3/3.3/func.xlsx
+++ b/Taks/3.3/3.3/3.3/func.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,8 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <f>I2</f>
-        <v>5</v>
+        <f>I2 * $B$2</f>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="M2">
         <f>J2*K2</f>
@@ -510,11 +510,11 @@
       </c>
       <c r="O2">
         <f>L2/M2</f>
-        <v>0.83333333333333337</v>
+        <v>8.333333333333335E-3</v>
       </c>
       <c r="P2">
         <f>O2</f>
-        <v>0.83333333333333337</v>
+        <v>8.333333333333335E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -557,8 +557,8 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="7">I3</f>
-        <v>7</v>
+        <f t="shared" ref="L3:L11" si="7">I3 * $B$2</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M11" si="8">J3*K3</f>
@@ -566,11 +566,11 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O11" si="9">L3/M3</f>
-        <v>0.46666666666666667</v>
+        <v>4.6666666666666671E-3</v>
       </c>
       <c r="P3">
         <f>O3+P2</f>
-        <v>1.3</v>
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
@@ -622,11 +622,11 @@
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>0.32142857142857145</v>
+        <v>3.2142857142857151E-3</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P11" si="11">O4+P3</f>
-        <v>1.6214285714285714</v>
+        <v>1.6214285714285716E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
@@ -678,11 +678,11 @@
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>0.24444444444444444</v>
+        <v>2.4444444444444448E-3</v>
       </c>
       <c r="P5">
         <f t="shared" si="11"/>
-        <v>1.8658730158730159</v>
+        <v>1.8658730158730159E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>0.13000000000000003</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
@@ -734,11 +734,11 @@
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>0.19696969696969696</v>
+        <v>1.9696969696969702E-3</v>
       </c>
       <c r="P6">
         <f t="shared" si="11"/>
-        <v>2.0628427128427127</v>
+        <v>2.0628427128427128E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
@@ -790,11 +790,11 @@
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>0.16483516483516483</v>
+        <v>1.6483516483516486E-3</v>
       </c>
       <c r="P7">
         <f t="shared" si="11"/>
-        <v>2.2276778776778774</v>
+        <v>2.2276778776778777E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
@@ -846,11 +846,11 @@
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
-        <v>0.14166666666666666</v>
+        <v>1.416666666666667E-3</v>
       </c>
       <c r="P8">
         <f t="shared" si="11"/>
-        <v>2.369344544344544</v>
+        <v>2.3693445443445444E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
@@ -902,11 +902,11 @@
       </c>
       <c r="O9">
         <f t="shared" si="9"/>
-        <v>0.12418300653594772</v>
+        <v>1.2418300653594774E-3</v>
       </c>
       <c r="P9">
         <f t="shared" si="11"/>
-        <v>2.4935275508804917</v>
+        <v>2.4935275508804922E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>0.21000000000000005</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
@@ -958,11 +958,11 @@
       </c>
       <c r="O10">
         <f t="shared" si="9"/>
-        <v>0.11052631578947368</v>
+        <v>1.105263157894737E-3</v>
       </c>
       <c r="P10">
         <f t="shared" si="11"/>
-        <v>2.6040538666699655</v>
+        <v>2.6040538666699659E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="M11">
         <f t="shared" si="8"/>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>9.9567099567099568E-2</v>
+        <v>9.9567099567099589E-4</v>
       </c>
       <c r="P11">
         <f t="shared" si="11"/>
-        <v>2.7036209662370649</v>
+        <v>2.7036209662370657E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Taks/3.3/3.3/3.3/func.xlsx
+++ b/Taks/3.3/3.3/3.3/func.xlsx
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     <col min="15" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +460,11 @@
       <c r="P1" t="s">
         <v>13</v>
       </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -501,8 +504,8 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <f>I2 * $B$2</f>
-        <v>5.000000000000001E-2</v>
+        <f>I2 * $B$10</f>
+        <v>4.0500000000000007</v>
       </c>
       <c r="M2">
         <f>J2*K2</f>
@@ -510,14 +513,14 @@
       </c>
       <c r="O2">
         <f>L2/M2</f>
-        <v>8.333333333333335E-3</v>
+        <v>0.67500000000000016</v>
       </c>
       <c r="P2">
-        <f>O2</f>
-        <v>8.333333333333335E-3</v>
+        <f>O2+Q1</f>
+        <v>1.6750000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -557,23 +560,23 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="7">I3 * $B$2</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ref="L3:L11" si="7">I3 * $B$10</f>
+        <v>5.67</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M11" si="8">J3*K3</f>
         <v>15</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O11" si="9">L3/M3</f>
-        <v>4.6666666666666671E-3</v>
+        <f>L3/M3 *O2</f>
+        <v>0.25515000000000004</v>
       </c>
       <c r="P3">
         <f>O3+P2</f>
-        <v>1.3000000000000001E-2</v>
+        <v>1.9301500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -594,7 +597,7 @@
         <v>1.2911256547721481</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F11" si="10">F3+E4</f>
+        <f t="shared" ref="F4:F11" si="9">F3+E4</f>
         <v>3.4454524613257784</v>
       </c>
       <c r="H4">
@@ -614,22 +617,22 @@
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>9.0000000000000024E-2</v>
+        <v>7.2900000000000009</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="O4">
-        <f t="shared" si="9"/>
-        <v>3.2142857142857151E-3</v>
+        <f t="shared" ref="O4:O11" si="10">L4/M4 *O3</f>
+        <v>6.643012500000002E-2</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P11" si="11">O4+P3</f>
-        <v>1.6214285714285716E-2</v>
+        <v>1.9965801250000004</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -650,7 +653,7 @@
         <v>1.5490343497091896</v>
       </c>
       <c r="F5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.9944868110349683</v>
       </c>
       <c r="H5">
@@ -670,22 +673,22 @@
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>0.11000000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="O5">
-        <f t="shared" si="9"/>
-        <v>2.4444444444444448E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3153164750000005E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="11"/>
-        <v>1.8658730158730159E-2</v>
+        <v>2.0097332897500002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -706,7 +709,7 @@
         <v>1.9260381250316121</v>
       </c>
       <c r="F6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.9205249360665801</v>
       </c>
       <c r="H6">
@@ -726,22 +729,22 @@
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>0.13000000000000003</v>
+        <v>10.530000000000001</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="O6">
-        <f t="shared" si="9"/>
-        <v>1.9696969696969702E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.098527648750001E-3</v>
       </c>
       <c r="P6">
         <f t="shared" si="11"/>
-        <v>2.0628427128427128E-2</v>
+        <v>2.0118318173987504</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -762,7 +765,7 @@
         <v>2.4653265930437849</v>
       </c>
       <c r="F7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9.385851529110365</v>
       </c>
       <c r="H7">
@@ -782,22 +785,22 @@
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>0.15000000000000002</v>
+        <v>12.15</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="O7">
-        <f t="shared" si="9"/>
-        <v>1.6483516483516486E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.8018803222321439E-4</v>
       </c>
       <c r="P7">
         <f t="shared" si="11"/>
-        <v>2.2276778776778777E-2</v>
+        <v>2.0121120054309736</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -818,7 +821,7 @@
         <v>3.23198611551165</v>
       </c>
       <c r="F8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12.617837644622014</v>
       </c>
       <c r="H8">
@@ -838,22 +841,22 @@
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>0.17000000000000004</v>
+        <v>13.770000000000001</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="O8">
-        <f t="shared" si="9"/>
-        <v>1.416666666666667E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.2151576697613855E-5</v>
       </c>
       <c r="P8">
         <f t="shared" si="11"/>
-        <v>2.3693445443445444E-2</v>
+        <v>2.012144157007671</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -874,7 +877,7 @@
         <v>4.3239764048152907</v>
       </c>
       <c r="F9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16.941814049437305</v>
       </c>
       <c r="H9">
@@ -894,22 +897,22 @@
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>0.19000000000000003</v>
+        <v>15.39</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="O9">
-        <f t="shared" si="9"/>
-        <v>1.2418300653594774E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.2340703619364526E-6</v>
       </c>
       <c r="P9">
         <f t="shared" si="11"/>
-        <v>2.4935275508804922E-2</v>
+        <v>2.0121473910780328</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -930,7 +933,7 @@
         <v>5.8895189250923563</v>
       </c>
       <c r="F10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>22.831332974529662</v>
       </c>
       <c r="H10">
@@ -950,22 +953,22 @@
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>0.21000000000000005</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="O10">
-        <f t="shared" si="9"/>
-        <v>1.105263157894737E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.8953440450810035E-7</v>
       </c>
       <c r="P10">
         <f t="shared" si="11"/>
-        <v>2.6040538666699659E-2</v>
+        <v>2.0121476806124372</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -986,7 +989,7 @@
         <v>8.1548454853771357</v>
       </c>
       <c r="F11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.986178459906796</v>
       </c>
       <c r="H11">
@@ -1006,19 +1009,19 @@
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>0.23000000000000004</v>
+        <v>18.630000000000003</v>
       </c>
       <c r="M11">
         <f t="shared" si="8"/>
         <v>231</v>
       </c>
       <c r="O11">
-        <f t="shared" si="9"/>
-        <v>9.9567099567099589E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.3350761714224721E-8</v>
       </c>
       <c r="P11">
         <f t="shared" si="11"/>
-        <v>2.7036209662370657E-2</v>
+        <v>2.012147703963199</v>
       </c>
     </row>
   </sheetData>
